--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikhil\Downloads\WebShop_App\WebShop_App\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikhil\WebsiteAutomation\WebShop_WebsiteAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6ACD6E-1824-4C5C-BF9F-EEE2B58F000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A654EE0-4D1C-435F-9967-D3CFC2AA9C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Category</t>
   </si>
@@ -83,12 +83,6 @@
     <t>male</t>
   </si>
   <si>
-    <t>Test3FN</t>
-  </si>
-  <si>
-    <t>Test3LN</t>
-  </si>
-  <si>
     <t>Test3FN.Test3LN@email.com</t>
   </si>
   <si>
@@ -105,6 +99,15 @@
   </si>
   <si>
     <t>Casual Golf Belt</t>
+  </si>
+  <si>
+    <t>Test5FN</t>
+  </si>
+  <si>
+    <t>Test5LN</t>
+  </si>
+  <si>
+    <t>Test5FN.Test5LN@email.com</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E8EEBB-A6A8-4D7C-B654-8D3AB3250E91}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
@@ -510,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -518,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -526,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -534,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -567,10 +570,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -589,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68573D5-9BBF-482A-ADA3-205053E89056}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,13 +624,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
